--- a/docs/Productivity before Perfection (version 1).xlsb - Copy.xlsx
+++ b/docs/Productivity before Perfection (version 1).xlsb - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Natalia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
   <si>
     <t>Warehouse - To Do List</t>
   </si>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,12 +1570,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>115</v>
       </c>
@@ -1583,13 +1586,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1606,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>

--- a/docs/Productivity before Perfection (version 1).xlsb - Copy.xlsx
+++ b/docs/Productivity before Perfection (version 1).xlsb - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UPS" sheetId="10" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Warehouse - To Do List</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>From packing is stored in STORES TO SUPPLY</t>
-  </si>
-  <si>
-    <t>Packing of sacks</t>
   </si>
   <si>
     <t>Master Batch colors on production</t>
@@ -888,7 +885,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -899,7 +896,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -909,7 +906,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -917,7 +914,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1022,12 +1019,12 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1035,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1043,7 +1040,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1062,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1070,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,34 +1083,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1155,7 +1152,7 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1162,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1178,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,40 +1211,40 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,7 +1274,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,43 +1282,38 @@
         <v>29</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
